--- a/Files/Vaccine_April 15, 2009.xlsx
+++ b/Files/Vaccine_April 15, 2009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="206">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.25</t>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t xml:space="preserve">$72.91</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib </t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -160,7 +166,7 @@
     <t xml:space="preserve">$27.62</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -214,7 +220,7 @@
     <t xml:space="preserve">$78.42</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -226,7 +232,7 @@
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -307,7 +313,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -325,7 +331,7 @@
     <t xml:space="preserve">Wyeth/Lederle</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide(23 Valent)</t>
+    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
   </si>
   <si>
     <t xml:space="preserve">Pneumovax</t>
@@ -457,21 +463,33 @@
     <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vials 10 pack - 1 dose vials6 pack - 1 dose prefilled syringe </t>
+    <t xml:space="preserve">1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$23.78</t>
   </si>
   <si>
-    <t xml:space="preserve">$59.70 $59.09$61.22 </t>
+    <t xml:space="preserve">$59.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 pack - 1 dose vials6 </t>
   </si>
   <si>
     <t xml:space="preserve">$23.372</t>
   </si>
   <si>
+    <t xml:space="preserve">$59.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pack - 1 dose prefilled syringe </t>
+  </si>
+  <si>
     <t xml:space="preserve">$25.30</t>
   </si>
   <si>
+    <t xml:space="preserve">$61.22</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGERIX-B</t>
   </si>
   <si>
@@ -481,9 +499,6 @@
     <t xml:space="preserve">$52.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 pack - 5 dose vials</t>
   </si>
   <si>
@@ -497,9 +512,6 @@
   </si>
   <si>
     <t xml:space="preserve">$18.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -546,7 +558,7 @@
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -558,7 +570,7 @@
     <t xml:space="preserve">$11.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -575,7 +587,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$10.31</t>
@@ -611,7 +623,7 @@
     <t xml:space="preserve">$11.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -941,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -961,10 +973,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -973,10 +985,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>40268</v>
@@ -990,10 +1002,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1002,10 +1014,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>40268</v>
@@ -1019,22 +1031,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>40268</v>
@@ -1048,22 +1060,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>40268</v>
@@ -1077,22 +1089,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>40268</v>
@@ -1106,22 +1118,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
         <v>40268</v>
@@ -1135,10 +1147,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1147,16 +1159,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="1">
         <v>40268</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1164,10 +1176,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1176,16 +1188,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1">
         <v>40268</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1193,10 +1205,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1205,10 +1217,10 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1">
         <v>40268</v>
@@ -1222,10 +1234,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1234,10 +1246,10 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1">
         <v>40268</v>
@@ -1251,10 +1263,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1263,10 +1275,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40268</v>
@@ -1280,22 +1292,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1">
         <v>40268</v>
@@ -1309,10 +1321,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1321,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1">
         <v>40268</v>
@@ -1338,22 +1350,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1">
         <v>40268</v>
@@ -1367,10 +1379,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1379,16 +1391,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1">
         <v>40268</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1396,10 +1408,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1408,16 +1420,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1">
         <v>40268</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1425,22 +1437,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1">
         <v>40268</v>
@@ -1454,10 +1466,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1466,16 +1478,16 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="1">
         <v>40268</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" t="s">
         <v>11</v>
@@ -1483,10 +1495,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1495,16 +1507,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G26" s="1">
         <v>40268</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1512,22 +1524,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G27" s="1">
         <v>40268</v>
@@ -1541,10 +1553,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1553,16 +1565,16 @@
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G28" s="1">
         <v>40268</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I28" t="s">
         <v>11</v>
@@ -1570,28 +1582,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G29" s="1">
         <v>40268</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1599,10 +1611,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
@@ -1611,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1">
         <v>40268</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1628,28 +1640,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G31" s="1">
         <v>40268</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1657,10 +1669,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
@@ -1669,10 +1681,10 @@
         <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G32" s="1">
         <v>40268</v>
@@ -1686,22 +1698,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G33" s="1">
         <v>40268</v>
@@ -1715,10 +1727,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
@@ -1727,10 +1739,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G34" s="1">
         <v>40268</v>
@@ -1744,10 +1756,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1756,7 +1768,7 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1765,7 +1777,7 @@
         <v>40268</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
         <v>11</v>
@@ -1773,10 +1785,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1785,10 +1797,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G36" s="1">
         <v>40268</v>
@@ -1802,22 +1814,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E37" t="s">
         <v>127</v>
       </c>
-      <c r="E37" t="s">
-        <v>125</v>
-      </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1">
         <v>40268</v>
@@ -1831,10 +1843,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1843,10 +1855,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G38" s="1">
         <v>40268</v>
@@ -1860,22 +1872,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G39" s="1">
         <v>40268</v>
@@ -1889,10 +1901,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -1901,16 +1913,16 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1">
         <v>40268</v>
       </c>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1963,28 +1975,28 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1">
         <v>39994</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -1992,10 +2004,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2004,16 +2016,16 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1">
         <v>39994</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -2021,10 +2033,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2033,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G4" s="1">
         <v>39994</v>
@@ -2050,22 +2062,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5" s="1">
         <v>39994</v>
@@ -2079,10 +2091,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2091,10 +2103,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G6" s="1">
         <v>39994</v>
@@ -2108,22 +2120,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1">
         <v>39994</v>
@@ -2137,28 +2149,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G8" s="1">
         <v>39994</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2166,28 +2178,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G9" s="1">
         <v>39994</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2195,28 +2207,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G10" s="1">
         <v>39994</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -2224,10 +2236,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2236,10 +2248,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1">
         <v>39994</v>
@@ -2253,22 +2265,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1">
         <v>39994</v>
@@ -2282,28 +2294,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="G13" s="1">
         <v>39994</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2311,28 +2323,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G14" s="1">
         <v>39994</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -2340,28 +2352,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G15" s="1">
         <v>39994</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -2369,28 +2381,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G16" s="1">
         <v>39994</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
         <v>11</v>
@@ -2398,28 +2410,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G17" s="1">
         <v>39994</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
         <v>11</v>
@@ -2472,22 +2484,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2501,22 +2513,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2530,22 +2542,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2559,10 +2571,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2571,10 +2583,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
@@ -2588,28 +2600,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2617,28 +2629,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G7" s="1">
         <v>40237</v>
       </c>
       <c r="H7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2646,28 +2658,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
       </c>
       <c r="H8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>

--- a/Files/Vaccine_April 15, 2009.xlsx
+++ b/Files/Vaccine_April 15, 2009.xlsx
@@ -1,106 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr autoCompressPictures="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26522"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A446FD6D-97F8-4DA8-905D-9F305060A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pediatric VFC Vaccine " sheetId="1" r:id="rId3"/>
-    <sheet name="Adult VFC Vaccine " sheetId="2" r:id="rId4"/>
-    <sheet name="Pediatric influenza Influenza" sheetId="3" r:id="rId5"/>
+    <sheet name="Pediatric VFC Vaccine " sheetId="1" r:id="rId1"/>
+    <sheet name="Adult VFC Vaccine " sheetId="2" r:id="rId2"/>
+    <sheet name="Pediatric influenza Influenza" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="206">
-  <si>
-    <t xml:space="preserve">Vaccine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrandName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CdcCost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private Sector Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="204">
+  <si>
+    <t>Vaccine</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>CdcCost</t>
+  </si>
+  <si>
+    <t>Private Sector Cost</t>
+  </si>
+  <si>
+    <t>Contract End</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Contract Number</t>
   </si>
   <si>
     <t xml:space="preserve">DTaP </t>
   </si>
   <si>
-    <t xml:space="preserve">Tripedia</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$22.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanofi Pasteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAPTACEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$23.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infanrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlaxoSmithKline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 pack - 1 dose T-L syringes. No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.44</t>
+    <t>Tripedia</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10 pack - 1 dose vials</t>
+  </si>
+  <si>
+    <t>$13.25</t>
+  </si>
+  <si>
+    <t>$22.35</t>
+  </si>
+  <si>
+    <t>Sanofi Pasteur</t>
+  </si>
+  <si>
+    <t>DAPTACEL</t>
+  </si>
+  <si>
+    <t>$13.75</t>
+  </si>
+  <si>
+    <t>$23.03</t>
+  </si>
+  <si>
+    <t>Infanrix</t>
+  </si>
+  <si>
+    <t>$20.96</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline</t>
+  </si>
+  <si>
+    <t>5 pack - 1 dose T-L syringes. No Needle</t>
+  </si>
+  <si>
+    <t>$21.44</t>
   </si>
   <si>
     <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
-    <t xml:space="preserve">Kinrix</t>
+    <t>Kinrix</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
-    <t xml:space="preserve">$32.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$48.00</t>
+    <t>$32.25</t>
+  </si>
+  <si>
+    <t>$48.00</t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
@@ -109,355 +125,355 @@
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
-    <t xml:space="preserve">Pediarix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$48.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$70.72</t>
+    <t>Pediarix</t>
+  </si>
+  <si>
+    <t>$48.75</t>
+  </si>
+  <si>
+    <t>$70.72</t>
   </si>
   <si>
     <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
-    <t xml:space="preserve">Pentacel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 pack - 1 dose vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$51.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$72.91</t>
+    <t>Pentacel</t>
+  </si>
+  <si>
+    <t>5 pack - 1 dose vials</t>
+  </si>
+  <si>
+    <t>$51.49</t>
+  </si>
+  <si>
+    <t>$72.91</t>
   </si>
   <si>
     <t xml:space="preserve">DTaP-Hib </t>
   </si>
   <si>
-    <t xml:space="preserve">TriHIBit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$27.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$44.88</t>
+    <t>TriHIBit</t>
+  </si>
+  <si>
+    <t>$27.31</t>
+  </si>
+  <si>
+    <t>$44.88</t>
   </si>
   <si>
     <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
-    <t xml:space="preserve">IPOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 dose vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$23.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-pack - 1 dose syringes, No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$27.62</t>
+    <t>IPOL</t>
+  </si>
+  <si>
+    <t>10 dose vials</t>
+  </si>
+  <si>
+    <t>$11.51</t>
+  </si>
+  <si>
+    <t>$23.90</t>
+  </si>
+  <si>
+    <t>10-pack - 1 dose syringes, No Needle</t>
+  </si>
+  <si>
+    <t>$27.62</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
-    <t xml:space="preserve">COMVAX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$28.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$43.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merck</t>
+    <t>COMVAX</t>
+  </si>
+  <si>
+    <t>$28.80</t>
+  </si>
+  <si>
+    <t>$43.56</t>
+  </si>
+  <si>
+    <t>Merck</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
-    <t xml:space="preserve">VAQTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Havrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$27.41</t>
+    <t>VAQTA</t>
+  </si>
+  <si>
+    <t>$13.00</t>
+  </si>
+  <si>
+    <t>$30.37</t>
+  </si>
+  <si>
+    <t>Havrix</t>
+  </si>
+  <si>
+    <t>$12.75</t>
+  </si>
+  <si>
+    <t>$27.41</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
-    <t xml:space="preserve">Twinrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$41.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$78.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$78.42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGERIX B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$21.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECOMBIVAX HB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$23.20</t>
+    <t>Twinrix</t>
+  </si>
+  <si>
+    <t>$41.50</t>
+  </si>
+  <si>
+    <t>$78.16</t>
+  </si>
+  <si>
+    <t>5 pack - 1 dose T-L syringes, No Needle</t>
+  </si>
+  <si>
+    <t>$78.42</t>
+  </si>
+  <si>
+    <t>Hepatitis B Pediatric/Adolescent</t>
+  </si>
+  <si>
+    <t>ENGERIX B</t>
+  </si>
+  <si>
+    <t>$9.75</t>
+  </si>
+  <si>
+    <t>$21.37</t>
+  </si>
+  <si>
+    <t>Hepatitis B  Pediatric/Adolescent</t>
+  </si>
+  <si>
+    <t>RECOMBIVAX HB</t>
+  </si>
+  <si>
+    <t>$10.00</t>
+  </si>
+  <si>
+    <t>$23.20</t>
   </si>
   <si>
     <t xml:space="preserve">Hib </t>
   </si>
   <si>
-    <t xml:space="preserve">PedvaxHIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$22.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ActHIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$22.83</t>
+    <t>PedvaxHIB</t>
+  </si>
+  <si>
+    <t>$11.29</t>
+  </si>
+  <si>
+    <t>$22.77</t>
+  </si>
+  <si>
+    <t>ActHIB</t>
+  </si>
+  <si>
+    <t>$8.66</t>
+  </si>
+  <si>
+    <t>$22.83</t>
   </si>
   <si>
     <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
-    <t xml:space="preserve">Gardasil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$105.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$130.27</t>
+    <t>Gardasil</t>
+  </si>
+  <si>
+    <t>$105.58</t>
+  </si>
+  <si>
+    <t>$130.27</t>
   </si>
   <si>
     <t xml:space="preserve">Measles, Mumps, Rubella and Varicella (MMR-V) </t>
   </si>
   <si>
-    <t xml:space="preserve">ProQuad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$82.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$128.90</t>
+    <t>ProQuad</t>
+  </si>
+  <si>
+    <t>$82.67</t>
+  </si>
+  <si>
+    <t>$128.90</t>
   </si>
   <si>
     <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
-    <t xml:space="preserve">Menactra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$80.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$98.52</t>
+    <t>Menactra</t>
+  </si>
+  <si>
+    <t>$80.13</t>
+  </si>
+  <si>
+    <t>$98.52</t>
   </si>
   <si>
     <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
-    <t xml:space="preserve">MMRII</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$48.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevnar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes, No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$71.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$83.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyeth/Lederle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pneumococcal Polysaccharide (23 Valent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pneumovax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$28.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$37.03</t>
+    <t>MMRII</t>
+  </si>
+  <si>
+    <t>$18.30</t>
+  </si>
+  <si>
+    <t>$48.31</t>
+  </si>
+  <si>
+    <t>Pneumococcal 7-valent (Pediatric)</t>
+  </si>
+  <si>
+    <t>Prevnar</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose syringes, No Needle</t>
+  </si>
+  <si>
+    <t>$71.04</t>
+  </si>
+  <si>
+    <t>$83.88</t>
+  </si>
+  <si>
+    <t>Wyeth/Lederle</t>
+  </si>
+  <si>
+    <t>Pneumococcal Polysaccharide (23 Valent)</t>
+  </si>
+  <si>
+    <t>Pneumovax</t>
+  </si>
+  <si>
+    <t>$28.88</t>
+  </si>
+  <si>
+    <t>$37.03</t>
   </si>
   <si>
     <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
-    <t xml:space="preserve">RotaTeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose 2mL tubes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$57.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$69.59</t>
+    <t>RotaTeq</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose 2mL tubes</t>
+  </si>
+  <si>
+    <t>$57.20</t>
+  </si>
+  <si>
+    <t>$69.59</t>
   </si>
   <si>
     <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
-    <t xml:space="preserve">Rotarix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$83.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$102.50</t>
+    <t>Rotarix</t>
+  </si>
+  <si>
+    <t>$83.25</t>
+  </si>
+  <si>
+    <t>$102.50</t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
-    <t xml:space="preserve">DECAVAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MassBiologics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$15.00</t>
+    <t>DECAVAC</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose syringes No Needle</t>
+  </si>
+  <si>
+    <t>$18.17</t>
+  </si>
+  <si>
+    <t>$19.49</t>
+  </si>
+  <si>
+    <t>MassBiologics</t>
+  </si>
+  <si>
+    <t>$15.00</t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
-    <t xml:space="preserve">BOOSTRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$37.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADACEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$37.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
+    <t>BOOSTRIX</t>
+  </si>
+  <si>
+    <t>$30.75</t>
+  </si>
+  <si>
+    <t>$37.55</t>
+  </si>
+  <si>
+    <t>5 pack - 1 dose TL syringes, No Needle</t>
+  </si>
+  <si>
+    <t>ADACEL</t>
+  </si>
+  <si>
+    <t>$37.43</t>
+  </si>
+  <si>
+    <t>5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
     <t xml:space="preserve">Varicella </t>
   </si>
   <si>
-    <t xml:space="preserve">Varivax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$64.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$80.58</t>
+    <t>Varivax</t>
+  </si>
+  <si>
+    <t>$64.53</t>
+  </si>
+  <si>
+    <t>$80.58</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
-    <t xml:space="preserve">1 dose vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$63.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$59.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$60.69</t>
+    <t>1 dose vials</t>
+  </si>
+  <si>
+    <t>$20.00</t>
+  </si>
+  <si>
+    <t>$63.51</t>
+  </si>
+  <si>
+    <t>$19.75</t>
+  </si>
+  <si>
+    <t>$59.99</t>
+  </si>
+  <si>
+    <t>$18.99</t>
+  </si>
+  <si>
+    <t>$60.69</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
-    <t xml:space="preserve">$38.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$86.44</t>
+    <t>$38.64</t>
+  </si>
+  <si>
+    <t>$86.44</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis B-Adult </t>
@@ -466,187 +482,172 @@
     <t xml:space="preserve">1 dose vials </t>
   </si>
   <si>
-    <t xml:space="preserve">$23.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$59.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose vials6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$23.372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$59.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pack - 1 dose prefilled syringe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">$25.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$61.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGERIX-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$24.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$52.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 pack - 5 dose vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$16.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$32.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - single dose 0.5 mL vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults No Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose vials
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.50
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$18.23
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MassBioLogics
-(Akorn, Inc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoster Vaccine Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zostavax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose vial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$107.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$153.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 pack-single dose 0.65mL vials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$113.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$161.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza   (Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$9.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$13.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$10.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$12.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No-Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluvirin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$7.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novartis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluvirin Preservative-free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack-1 dose syringes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$8.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$11.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 pack - 1 dose sprayers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$15.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$19.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MedImmune</t>
+    <t>$23.78</t>
+  </si>
+  <si>
+    <t>$59.70</t>
+  </si>
+  <si>
+    <t>$23.372</t>
+  </si>
+  <si>
+    <t>$59.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 pack - 1 dose prefilled syringe </t>
+  </si>
+  <si>
+    <t>$25.30</t>
+  </si>
+  <si>
+    <t>$61.22</t>
+  </si>
+  <si>
+    <t>ENGERIX-B</t>
+  </si>
+  <si>
+    <t>$24.90</t>
+  </si>
+  <si>
+    <t>$52.50</t>
+  </si>
+  <si>
+    <t>1 pack - 5 dose vials</t>
+  </si>
+  <si>
+    <t>$16.26</t>
+  </si>
+  <si>
+    <t>$32.99</t>
+  </si>
+  <si>
+    <t>10 pack - single dose 0.5 mL vials</t>
+  </si>
+  <si>
+    <t>$18.93</t>
+  </si>
+  <si>
+    <t>Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$13.50 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$18.23 </t>
+  </si>
+  <si>
+    <t>MassBioLogics (Akorn, Inc)</t>
+  </si>
+  <si>
+    <t>Zoster Vaccine Live</t>
+  </si>
+  <si>
+    <t>Zostavax</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose vial</t>
+  </si>
+  <si>
+    <t>$107.67</t>
+  </si>
+  <si>
+    <t>$153.93</t>
+  </si>
+  <si>
+    <t>1 pack-single dose 0.65mL vials</t>
+  </si>
+  <si>
+    <t>$113.16</t>
+  </si>
+  <si>
+    <t>$161.50</t>
+  </si>
+  <si>
+    <t>Influenza   (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t>Fluzone</t>
+  </si>
+  <si>
+    <t>$9.09</t>
+  </si>
+  <si>
+    <t>$11.17</t>
+  </si>
+  <si>
+    <t>Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t>Fluzone Pediatric dose No Preservative</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose syringes</t>
+  </si>
+  <si>
+    <t>$11.05</t>
+  </si>
+  <si>
+    <t>$13.16</t>
+  </si>
+  <si>
+    <t>Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t>$10.31</t>
+  </si>
+  <si>
+    <t>$12.41</t>
+  </si>
+  <si>
+    <t>No-Preservative</t>
+  </si>
+  <si>
+    <t>Influenza  (Age 4 years and older)</t>
+  </si>
+  <si>
+    <t>Fluvirin</t>
+  </si>
+  <si>
+    <t>$7.75</t>
+  </si>
+  <si>
+    <t>Novartis</t>
+  </si>
+  <si>
+    <t>Fluvirin Preservative-free</t>
+  </si>
+  <si>
+    <t>10 pack-1 dose syringes</t>
+  </si>
+  <si>
+    <t>$8.50</t>
+  </si>
+  <si>
+    <t>$11.25</t>
+  </si>
+  <si>
+    <t>Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t>FluMist No Preservative</t>
+  </si>
+  <si>
+    <t>10 pack - 1 dose sprayers</t>
+  </si>
+  <si>
+    <t>$15.25</t>
+  </si>
+  <si>
+    <t>$19.70</t>
+  </si>
+  <si>
+    <t>MedImmune</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -656,17 +657,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="0"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -675,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -687,88 +683,337 @@
       <left/>
       <right/>
       <top/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-    </border>
-    <border>
-      <top/>
-    </border>
-    <border/>
-    <border>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
-    </border>
-    <border>
-      <left>
-        <color indexed="0"/>
-      </left>
-      <right>
-        <color indexed="0"/>
-      </right>
-      <top>
-        <color indexed="0"/>
-      </top>
-      <bottom>
-        <color indexed="0"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection locked="1"/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -826,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -855,7 +1100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -884,7 +1129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -913,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -942,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -971,7 +1216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1000,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1303,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1087,7 +1332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1174,7 +1419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1203,7 +1448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1232,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1261,7 +1506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1290,7 +1535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1319,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1348,7 +1593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1377,7 +1622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -1406,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1435,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1464,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -1493,7 +1738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -1522,7 +1767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1551,7 +1796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1580,7 +1825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1609,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -1638,7 +1883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>109</v>
       </c>
@@ -1667,7 +1912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -1696,7 +1941,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -1725,7 +1970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>118</v>
       </c>
@@ -1754,7 +1999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -1783,7 +2028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -1812,7 +2057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -1841,7 +2086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>125</v>
       </c>
@@ -1870,7 +2115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>125</v>
       </c>
@@ -1899,7 +2144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -1930,21 +2175,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +2217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2002,7 +2246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2031,7 +2275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2060,7 +2304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2089,7 +2333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>145</v>
       </c>
@@ -2118,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -2147,7 +2391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -2176,7 +2420,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -2187,13 +2431,13 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
         <v>152</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" t="s">
-        <v>154</v>
       </c>
       <c r="G9" s="1">
         <v>39994</v>
@@ -2205,7 +2449,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>148</v>
       </c>
@@ -2216,13 +2460,13 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
         <v>155</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" t="s">
-        <v>157</v>
       </c>
       <c r="G10" s="1">
         <v>39994</v>
@@ -2234,12 +2478,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -2248,10 +2492,10 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
         <v>159</v>
-      </c>
-      <c r="F11" t="s">
-        <v>160</v>
       </c>
       <c r="G11" s="1">
         <v>39994</v>
@@ -2263,12 +2507,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2277,10 +2521,10 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F12" t="s">
         <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>160</v>
       </c>
       <c r="G12" s="1">
         <v>39994</v>
@@ -2292,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2303,13 +2547,13 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" t="s">
         <v>161</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>162</v>
-      </c>
-      <c r="F13" t="s">
-        <v>163</v>
       </c>
       <c r="G13" s="1">
         <v>39994</v>
@@ -2321,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -2332,10 +2576,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" t="s">
         <v>164</v>
-      </c>
-      <c r="E14" t="s">
-        <v>165</v>
       </c>
       <c r="F14" t="s">
         <v>108</v>
@@ -2350,53 +2594,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>118</v>
       </c>
       <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>166</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>167</v>
-      </c>
-      <c r="E15" t="s">
-        <v>168</v>
-      </c>
-      <c r="F15" t="s">
-        <v>169</v>
       </c>
       <c r="G15" s="1">
         <v>39994</v>
       </c>
       <c r="H15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
         <v>170</v>
       </c>
-      <c r="I15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
         <v>171</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>172</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>173</v>
-      </c>
-      <c r="E16" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" t="s">
-        <v>175</v>
       </c>
       <c r="G16" s="1">
         <v>39994</v>
@@ -2408,24 +2652,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" t="s">
         <v>176</v>
-      </c>
-      <c r="E17" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" t="s">
-        <v>178</v>
       </c>
       <c r="G17" s="1">
         <v>39994</v>
@@ -2439,21 +2683,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2482,12 +2723,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2496,10 +2737,10 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2511,24 +2752,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>185</v>
-      </c>
-      <c r="E3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" t="s">
-        <v>187</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2540,24 +2781,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" t="s">
         <v>188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2569,12 +2810,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2583,10 +2824,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
@@ -2598,12 +2839,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2612,7 +2853,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
         <v>70</v>
@@ -2621,65 +2862,65 @@
         <v>40237</v>
       </c>
       <c r="H6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>195</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>196</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>197</v>
-      </c>
-      <c r="E7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" t="s">
-        <v>199</v>
       </c>
       <c r="G7" s="1">
         <v>40237</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>200</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>201</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>202</v>
-      </c>
-      <c r="E8" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" t="s">
-        <v>204</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
       </c>
       <c r="H8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2687,8 +2928,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="default"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>